--- a/df_1/df_1_6.xlsx
+++ b/df_1/df_1_6.xlsx
@@ -659,377 +659,377 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8378 %</t>
+          <t>0,8378</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.2428 %</t>
+          <t>0,2428</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5842 %</t>
+          <t>0,5842</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.6477 %</t>
+          <t>0,6477</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.2269 %</t>
+          <t>1,2269</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.043 %</t>
+          <t>1,043</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.0361 %</t>
+          <t>1,0361</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.5342 %</t>
+          <t>0,5342</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.5918 %</t>
+          <t>0,5918</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.5763 %</t>
+          <t>0,5763</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.5231 %</t>
+          <t>0,5231</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.347 %</t>
+          <t>1,347</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.7178 %</t>
+          <t>0,7178</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.617 %</t>
+          <t>0,617</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.8426 %</t>
+          <t>0,8426</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.6402 %</t>
+          <t>0,6402</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.6489 %</t>
+          <t>0,6489</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.5988 %</t>
+          <t>0,5988</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.0324 %</t>
+          <t>1,0324</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.3657 %</t>
+          <t>1,3657</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.5702 %</t>
+          <t>0,5702</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.8536 %</t>
+          <t>0,8536</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.829 %</t>
+          <t>0,829</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.1853 %</t>
+          <t>1,1853</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.9986 %</t>
+          <t>0,9986</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.5298 %</t>
+          <t>0,5298</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.6431 %</t>
+          <t>0,6431</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1.2794 %</t>
+          <t>1,2794</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.6637 %</t>
+          <t>0,6637</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.4697 %</t>
+          <t>0,4697</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1.015 %</t>
+          <t>1,015</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.5882 %</t>
+          <t>0,5882</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.7617 %</t>
+          <t>0,7617</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.4567 %</t>
+          <t>0,4567</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.9724 %</t>
+          <t>0,9724</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.5132 %</t>
+          <t>0,5132</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.8385 %</t>
+          <t>0,8385</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.6693 %</t>
+          <t>0,6693</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1.2981 %</t>
+          <t>1,2981</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.8378 %</t>
+          <t>0,8378</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.4921 %</t>
+          <t>0,4921</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.4896 %</t>
+          <t>0,4896</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.8667 %</t>
+          <t>0,8667</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.4181 %</t>
+          <t>0,4181</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.3698 %</t>
+          <t>0,3698</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.4204 %</t>
+          <t>0,4204</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.6568 %</t>
+          <t>0,6568</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.8986 %</t>
+          <t>0,8986</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.2676 %</t>
+          <t>0,2676</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.29 %</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.3686 %</t>
+          <t>0,3686</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.8886 %</t>
+          <t>0,8886</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.9283 %</t>
+          <t>0,9283</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.6763 %</t>
+          <t>0,6763</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.9086 %</t>
+          <t>0,9086</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.6406 %</t>
+          <t>0,6406</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.6338 %</t>
+          <t>0,6338</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.1901 %</t>
+          <t>0,1901</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.2385 %</t>
+          <t>0,2385</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.3764 %</t>
+          <t>0,3764</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.5136 %</t>
+          <t>0,5136</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.6125 %</t>
+          <t>0,6125</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.3911 %</t>
+          <t>0,3911</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.5315 %</t>
+          <t>0,5315</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.6365 %</t>
+          <t>0,6365</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.8754 %</t>
+          <t>0,8754</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.6642 %</t>
+          <t>0,6642</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.7233 %</t>
+          <t>0,7233</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.5836 %</t>
+          <t>0,5836</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>1.1542 %</t>
+          <t>1,1542</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>1.1134 %</t>
+          <t>1,1134</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.4488 %</t>
+          <t>0,4488</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.321 %</t>
+          <t>0,321</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.273 %</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>3.926 %</t>
+          <t>3,926</t>
         </is>
       </c>
     </row>
@@ -1041,227 +1041,227 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.933 %</t>
+          <t>1,933</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3256 %</t>
+          <t>0,3256</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.265 %</t>
+          <t>0,265</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5052 %</t>
+          <t>0,5052</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.303 %</t>
+          <t>0,303</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7719 %</t>
+          <t>0,7719</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.4746 %</t>
+          <t>0,4746</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.264 %</t>
+          <t>0,264</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.967 %</t>
+          <t>0,967</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.8345 %</t>
+          <t>0,8345</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.5368 %</t>
+          <t>0,5368</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.498 %</t>
+          <t>0,498</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.8906 %</t>
+          <t>0,8906</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.1796 %</t>
+          <t>1,1796</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.3105 %</t>
+          <t>1,3105</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.4332 %</t>
+          <t>0,4332</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.5873 %</t>
+          <t>0,5873</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.0609 %</t>
+          <t>1,0609</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.876 %</t>
+          <t>0,876</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.6006 %</t>
+          <t>0,6006</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.8449 %</t>
+          <t>0,8449</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.8183 %</t>
+          <t>1,8183</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.0764 %</t>
+          <t>1,0764</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.2331 %</t>
+          <t>1,2331</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1.2447 %</t>
+          <t>1,2447</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.7902 %</t>
+          <t>0,7902</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.6012 %</t>
+          <t>0,6012</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.6133 %</t>
+          <t>0,6133</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.8299 %</t>
+          <t>0,8299</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.7936 %</t>
+          <t>0,7936</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.553 %</t>
+          <t>0,553</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.355 %</t>
+          <t>0,355</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.4959 %</t>
+          <t>0,4959</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.6258 %</t>
+          <t>0,6258</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.5733 %</t>
+          <t>0,5733</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.52 %</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.3783 %</t>
+          <t>0,3783</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.4146 %</t>
+          <t>0,4146</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.2524 %</t>
+          <t>0,2524</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.5893 %</t>
+          <t>0,5893</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.2391 %</t>
+          <t>0,2391</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.164 %</t>
+          <t>0,164</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.3025 %</t>
+          <t>0,3025</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.4726 %</t>
+          <t>0,4726</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>1.2286 %</t>
+          <t>1,2286</t>
         </is>
       </c>
     </row>
@@ -1273,262 +1273,262 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.4535 %</t>
+          <t>0,4535</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.2179 %</t>
+          <t>0,2179</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.1538 %</t>
+          <t>0,1538</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.1006 %</t>
+          <t>0,1006</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.1062 %</t>
+          <t>0,1062</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0936 %</t>
+          <t>0,0936</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.0997 %</t>
+          <t>0,0997</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.0529 %</t>
+          <t>0,0529</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0429 %</t>
+          <t>0,0429</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0483 %</t>
+          <t>0,0483</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0412 %</t>
+          <t>0,0412</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.0298 %</t>
+          <t>0,0298</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.0382 %</t>
+          <t>0,0382</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0324 %</t>
+          <t>0,0324</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0302 %</t>
+          <t>0,0302</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.0369 %</t>
+          <t>0,0369</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.043 %</t>
+          <t>0,043</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.0662 %</t>
+          <t>0,0662</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.0839 %</t>
+          <t>0,0839</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.1918 %</t>
+          <t>0,1918</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.3442 %</t>
+          <t>0,3442</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.504 %</t>
+          <t>0,504</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1.1009 %</t>
+          <t>1,1009</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1.2071 %</t>
+          <t>1,2071</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.8088 %</t>
+          <t>0,8088</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.7145 %</t>
+          <t>0,7145</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.573 %</t>
+          <t>0,573</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.5647 %</t>
+          <t>0,5647</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.5808 %</t>
+          <t>0,5808</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.6333 %</t>
+          <t>0,6333</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.6677 %</t>
+          <t>0,6677</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.7388 %</t>
+          <t>0,7388</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.94 %</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.332 %</t>
+          <t>1,332</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>1.3417 %</t>
+          <t>1,3417</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1.5763 %</t>
+          <t>1,5763</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>1.9409 %</t>
+          <t>1,9409</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2.4606 %</t>
+          <t>2,4606</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>3.578 %</t>
+          <t>3,578</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2.5767 %</t>
+          <t>2,5767</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2.6837 %</t>
+          <t>2,6837</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>2.4079 %</t>
+          <t>2,4079</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2.1821 %</t>
+          <t>2,1821</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>2.074 %</t>
+          <t>2,074</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2.5602 %</t>
+          <t>2,5602</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>1.6689 %</t>
+          <t>1,6689</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>1.5749 %</t>
+          <t>1,5749</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2.1702 %</t>
+          <t>2,1702</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2.0513 %</t>
+          <t>2,0513</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1.9173 %</t>
+          <t>1,9173</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1.627 %</t>
+          <t>1,627</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1.037 %</t>
+          <t>1,037</t>
         </is>
       </c>
     </row>
